--- a/Scrapperjar/scrapper/data/InterCity_Distance_Time.xlsx
+++ b/Scrapperjar/scrapper/data/InterCity_Distance_Time.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Idukki</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>SCRAPPING DATA(IT WILL SHOW AFTER RUN THE PROGRAM)</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>58 Km - Distance from Alappuzha to Ernakulam</t>
@@ -73,7 +70,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -416,18 +412,19 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="61.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -437,8 +434,11 @@
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -446,10 +446,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -468,10 +468,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -479,10 +479,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -490,10 +490,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
